--- a/yyyyyy.xlsx
+++ b/yyyyyy.xlsx
@@ -81,7 +81,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -750,39 +753,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A2:A5"/>
+  <x:dimension ref="A2:A7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A5"/>
+      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="8.796875" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:1">
-      <x:c r="A2">
+      <x:c r="A2" s="1">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3">
+      <x:c r="A3" s="1">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4">
+      <x:c r="A4" s="1">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="2">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="2">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>